--- a/AmpedBiz/AmpedBiz.Service.Host/Data/Default/default_ending_inventory.xlsx
+++ b/AmpedBiz/AmpedBiz.Service.Host/Data/Default/default_ending_inventory.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_repo\Narasoft\tinda\trunk\AmpedBiz\AmpedBiz.Service.Host\Data\Default\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="555" windowWidth="14655" windowHeight="7620"/>
+    <workbookView minimized="1" xWindow="600" yWindow="552" windowWidth="14652" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2340,11 +2345,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2392,6 +2397,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2438,7 +2451,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2470,9 +2483,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2504,6 +2535,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2679,22 +2728,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A578" workbookViewId="0">
-      <selection activeCell="H583" sqref="H583"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E250" sqref="E250"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -2714,12 +2763,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>5011200206263</v>
       </c>
@@ -2739,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>5011200228075</v>
       </c>
@@ -2759,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>5011200223663</v>
       </c>
@@ -2779,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>5011200291172</v>
       </c>
@@ -2799,7 +2848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>5011200209519</v>
       </c>
@@ -2819,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>5010154077533</v>
       </c>
@@ -2839,7 +2888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>5013180209981</v>
       </c>
@@ -2859,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>5017183111008</v>
       </c>
@@ -2879,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>5031180210298</v>
       </c>
@@ -2899,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>5015151332301</v>
       </c>
@@ -2919,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>5015151332303</v>
       </c>
@@ -2939,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>5015151332304</v>
       </c>
@@ -2959,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>5015151332305</v>
       </c>
@@ -2979,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>5015151332306</v>
       </c>
@@ -2999,7 +3048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>5013180150032</v>
       </c>
@@ -3019,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>5013180148041</v>
       </c>
@@ -3039,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>5010154051201</v>
       </c>
@@ -3059,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>5010154051202</v>
       </c>
@@ -3079,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>5010154049213</v>
       </c>
@@ -3099,7 +3148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>5010154049214</v>
       </c>
@@ -3119,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>5011200206962</v>
       </c>
@@ -3139,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>5010154078025</v>
       </c>
@@ -3159,7 +3208,7 @@
         <v>795.9</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>5010154077536</v>
       </c>
@@ -3179,7 +3228,7 @@
         <v>795.9</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>5013180210299</v>
       </c>
@@ -3199,7 +3248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>5013180210298</v>
       </c>
@@ -3219,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>5010154077531</v>
       </c>
@@ -3239,7 +3288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>5010154077532</v>
       </c>
@@ -3259,17 +3308,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>5018190507516</v>
       </c>
@@ -3289,7 +3338,7 @@
         <v>3420.82</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>5018190510511</v>
       </c>
@@ -3309,7 +3358,7 @@
         <v>1847.55</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>5018190519512</v>
       </c>
@@ -3329,7 +3378,7 @@
         <v>5182.08</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>5018190519514</v>
       </c>
@@ -3349,7 +3398,7 @@
         <v>2972.34</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>5018190519511</v>
       </c>
@@ -3369,7 +3418,7 @@
         <v>3281.52</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>5018190528811</v>
       </c>
@@ -3389,7 +3438,7 @@
         <v>21372.54</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>5018190528813</v>
       </c>
@@ -3409,7 +3458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>5018190527512</v>
       </c>
@@ -3429,7 +3478,7 @@
         <v>2599.5300000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>5018190547532</v>
       </c>
@@ -3449,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>5018190527513</v>
       </c>
@@ -3469,7 +3518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>5018190528812</v>
       </c>
@@ -3489,7 +3538,7 @@
         <v>19107.900000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>5018190531319</v>
       </c>
@@ -3509,7 +3558,7 @@
         <v>23270.25</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>5018190550511</v>
       </c>
@@ -3529,7 +3578,7 @@
         <v>435.6</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>5018190550513</v>
       </c>
@@ -3549,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>5018190563511</v>
       </c>
@@ -3569,7 +3618,7 @@
         <v>2345.75</v>
       </c>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>5018190563512</v>
       </c>
@@ -3589,7 +3638,7 @@
         <v>2148.96</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>5018190562516</v>
       </c>
@@ -3609,7 +3658,7 @@
         <v>1143.0999999999999</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>5018190562515</v>
       </c>
@@ -3629,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>5018190563519</v>
       </c>
@@ -3649,7 +3698,7 @@
         <v>1716.56</v>
       </c>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>5018190563517</v>
       </c>
@@ -3669,7 +3718,7 @@
         <v>2235.52</v>
       </c>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>5018190563515</v>
       </c>
@@ -3689,7 +3738,7 @@
         <v>3919.68</v>
       </c>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>5018190568017</v>
       </c>
@@ -3709,7 +3758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>5018190320059</v>
       </c>
@@ -3729,7 +3778,7 @@
         <v>1279.2</v>
       </c>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>5018190320060</v>
       </c>
@@ -3749,7 +3798,7 @@
         <v>1572.2</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>5018190322123</v>
       </c>
@@ -3769,17 +3818,17 @@
         <v>490.88</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59">
         <v>5017183206547</v>
       </c>
@@ -3799,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60">
         <v>5017183202840</v>
       </c>
@@ -3819,17 +3868,17 @@
         <v>24634</v>
       </c>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>5015151452010</v>
       </c>
@@ -3849,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64">
         <v>5015151487952</v>
       </c>
@@ -3869,7 +3918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65">
         <v>5015151448060</v>
       </c>
@@ -3889,7 +3938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66">
         <v>5013180208620</v>
       </c>
@@ -3909,7 +3958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67">
         <v>5015151407037</v>
       </c>
@@ -3929,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68">
         <v>5015151412006</v>
       </c>
@@ -3949,7 +3998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69">
         <v>501515407052</v>
       </c>
@@ -3969,7 +4018,7 @@
         <v>18849</v>
       </c>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70">
         <v>5015151412020</v>
       </c>
@@ -3989,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71">
         <v>5015151412040</v>
       </c>
@@ -4009,7 +4058,7 @@
         <v>12222</v>
       </c>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72">
         <v>5015151407053</v>
       </c>
@@ -4029,7 +4078,7 @@
         <v>15759</v>
       </c>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73">
         <v>5015151412055</v>
       </c>
@@ -4049,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74">
         <v>5015151412070</v>
       </c>
@@ -4069,7 +4118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75">
         <v>5015151412120</v>
       </c>
@@ -4089,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76">
         <v>5015151412116</v>
       </c>
@@ -4109,7 +4158,7 @@
         <v>5704</v>
       </c>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77">
         <v>5015151412170</v>
       </c>
@@ -4129,7 +4178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78">
         <v>5015151412180</v>
       </c>
@@ -4149,7 +4198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79">
         <v>5013180209410</v>
       </c>
@@ -4169,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80">
         <v>5013180223261</v>
       </c>
@@ -4189,7 +4238,7 @@
         <v>227.4</v>
       </c>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81">
         <v>5013180256681</v>
       </c>
@@ -4209,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:7">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82">
         <v>50180256682</v>
       </c>
@@ -4229,7 +4278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>5013170104085</v>
       </c>
@@ -4249,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>5013170104272</v>
       </c>
@@ -4269,7 +4318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>501317104280</v>
       </c>
@@ -4289,7 +4338,7 @@
         <v>7212.2</v>
       </c>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>5017183049501</v>
       </c>
@@ -4309,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>5017183049502</v>
       </c>
@@ -4329,7 +4378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>5017183049472</v>
       </c>
@@ -4349,7 +4398,7 @@
         <v>11880</v>
       </c>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>5017183049471</v>
       </c>
@@ -4369,7 +4418,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="90" spans="2:7">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>5013170104291</v>
       </c>
@@ -4389,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:7">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>5013170104292</v>
       </c>
@@ -4409,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:7">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>5013170104494</v>
       </c>
@@ -4429,7 +4478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>5013180209018</v>
       </c>
@@ -4449,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:7">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>5013180209479</v>
       </c>
@@ -4469,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>5013180209450</v>
       </c>
@@ -4489,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>5013180209477</v>
       </c>
@@ -4509,7 +4558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:7">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>5013180209454</v>
       </c>
@@ -4529,7 +4578,7 @@
         <v>654.75</v>
       </c>
     </row>
-    <row r="98" spans="2:7">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98">
         <v>5013180209496</v>
       </c>
@@ -4549,7 +4598,7 @@
         <v>41.6</v>
       </c>
     </row>
-    <row r="99" spans="2:7">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99">
         <v>5013180209490</v>
       </c>
@@ -4569,7 +4618,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="100" spans="2:7">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100">
         <v>5013180209499</v>
       </c>
@@ -4589,7 +4638,7 @@
         <v>1552.5</v>
       </c>
     </row>
-    <row r="101" spans="2:7">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101">
         <v>5013180209493</v>
       </c>
@@ -4609,7 +4658,7 @@
         <v>4793.3999999999996</v>
       </c>
     </row>
-    <row r="102" spans="2:7">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102">
         <v>5013180209492</v>
       </c>
@@ -4629,7 +4678,7 @@
         <v>8168.6</v>
       </c>
     </row>
-    <row r="103" spans="2:7">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103">
         <v>5013180208773</v>
       </c>
@@ -4649,7 +4698,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="104" spans="2:7">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104">
         <v>5013180208720</v>
       </c>
@@ -4669,7 +4718,7 @@
         <v>7733</v>
       </c>
     </row>
-    <row r="105" spans="2:7">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105">
         <v>5013180208733</v>
       </c>
@@ -4689,7 +4738,7 @@
         <v>7107.3</v>
       </c>
     </row>
-    <row r="106" spans="2:7">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106">
         <v>5013180209207</v>
       </c>
@@ -4709,7 +4758,7 @@
         <v>133.19999999999999</v>
       </c>
     </row>
-    <row r="107" spans="2:7">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107">
         <v>5013180209206</v>
       </c>
@@ -4729,7 +4778,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="108" spans="2:7">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108">
         <v>5013180209209</v>
       </c>
@@ -4749,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="2:7">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109">
         <v>5013180209208</v>
       </c>
@@ -4769,7 +4818,7 @@
         <v>2615.8000000000002</v>
       </c>
     </row>
-    <row r="110" spans="2:7">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110">
         <v>5013180209570</v>
       </c>
@@ -4789,7 +4838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:7">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111">
         <v>5013180209550</v>
       </c>
@@ -4809,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:7">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112">
         <v>5013180209562</v>
       </c>
@@ -4829,7 +4878,7 @@
         <v>8456.4</v>
       </c>
     </row>
-    <row r="113" spans="2:7">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113">
         <v>5013180204410</v>
       </c>
@@ -4849,7 +4898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:7">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114">
         <v>5015151412158</v>
       </c>
@@ -4869,7 +4918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:7">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115">
         <v>1006</v>
       </c>
@@ -4889,7 +4938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:7">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116">
         <v>1007</v>
       </c>
@@ -4909,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:7">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117">
         <v>5013170104322</v>
       </c>
@@ -4929,7 +4978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:7">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118">
         <v>5013180240003</v>
       </c>
@@ -4949,7 +4998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="2:7">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119">
         <v>5013180209600</v>
       </c>
@@ -4969,7 +5018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="2:7">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120">
         <v>5013170104465</v>
       </c>
@@ -4989,7 +5038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="2:7">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121">
         <v>5015151448121</v>
       </c>
@@ -5009,7 +5058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="2:7">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122">
         <v>5013180209128</v>
       </c>
@@ -5029,7 +5078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="2:7">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123">
         <v>501380209120</v>
       </c>
@@ -5049,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="2:7">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124">
         <v>5013180210285</v>
       </c>
@@ -5069,7 +5118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="2:7">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125">
         <v>5013180210241</v>
       </c>
@@ -5089,7 +5138,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="126" spans="2:7">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126">
         <v>5013180210283</v>
       </c>
@@ -5109,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="2:7">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127">
         <v>5013180209870</v>
       </c>
@@ -5129,7 +5178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:7">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128">
         <v>5017183074401</v>
       </c>
@@ -5149,7 +5198,7 @@
         <v>31953.599999999999</v>
       </c>
     </row>
-    <row r="129" spans="2:7">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129">
         <v>5017183049450</v>
       </c>
@@ -5169,7 +5218,7 @@
         <v>44818.1</v>
       </c>
     </row>
-    <row r="130" spans="2:7">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B130">
         <v>5017183049469</v>
       </c>
@@ -5189,7 +5238,7 @@
         <v>1225.25</v>
       </c>
     </row>
-    <row r="131" spans="2:7">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B131">
         <v>5017183049468</v>
       </c>
@@ -5209,7 +5258,7 @@
         <v>21452.5</v>
       </c>
     </row>
-    <row r="132" spans="2:7">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B132">
         <v>5015151472059</v>
       </c>
@@ -5229,7 +5278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="2:7">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B133">
         <v>5015151472151</v>
       </c>
@@ -5249,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="2:7">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B134">
         <v>5015151472152</v>
       </c>
@@ -5269,7 +5318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="2:7">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B135">
         <v>5015151472153</v>
       </c>
@@ -5289,7 +5338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="2:7">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B136">
         <v>5015151473413</v>
       </c>
@@ -5309,7 +5358,7 @@
         <v>5787.6</v>
       </c>
     </row>
-    <row r="137" spans="2:7">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B137">
         <v>4805358203016</v>
       </c>
@@ -5329,7 +5378,7 @@
         <v>1719.9</v>
       </c>
     </row>
-    <row r="138" spans="2:7">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B138">
         <v>5015151472285</v>
       </c>
@@ -5349,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="2:7">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B139">
         <v>5015151472288</v>
       </c>
@@ -5369,7 +5418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="2:7">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B140">
         <v>5015151472115</v>
       </c>
@@ -5389,7 +5438,7 @@
         <v>120611.4</v>
       </c>
     </row>
-    <row r="141" spans="2:7">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B141">
         <v>5015151472446</v>
       </c>
@@ -5409,7 +5458,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="142" spans="2:7">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B142">
         <v>5015151472150</v>
       </c>
@@ -5429,7 +5478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="2:7">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B143">
         <v>5015151475026</v>
       </c>
@@ -5449,7 +5498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="2:7">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B144">
         <v>5015151472130</v>
       </c>
@@ -5469,7 +5518,7 @@
         <v>51695</v>
       </c>
     </row>
-    <row r="145" spans="2:7">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B145">
         <v>5015151472170</v>
       </c>
@@ -5489,7 +5538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="2:7">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B146">
         <v>5015151472178</v>
       </c>
@@ -5509,7 +5558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:7">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B147">
         <v>5015151472230</v>
       </c>
@@ -5529,7 +5578,7 @@
         <v>52934.7</v>
       </c>
     </row>
-    <row r="148" spans="2:7">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B148">
         <v>5015151472448</v>
       </c>
@@ -5549,7 +5598,7 @@
         <v>4539</v>
       </c>
     </row>
-    <row r="149" spans="2:7">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149">
         <v>5015151472250</v>
       </c>
@@ -5569,7 +5618,7 @@
         <v>58187.5</v>
       </c>
     </row>
-    <row r="150" spans="2:7">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B150">
         <v>4805358203013</v>
       </c>
@@ -5589,7 +5638,7 @@
         <v>54.6</v>
       </c>
     </row>
-    <row r="151" spans="2:7">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B151">
         <v>5015151472238</v>
       </c>
@@ -5609,17 +5658,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="2:7">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="153" spans="2:7">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="154" spans="2:7">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B154">
         <v>5015151350138</v>
       </c>
@@ -5639,7 +5688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="2:7">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B155">
         <v>5015151350127</v>
       </c>
@@ -5659,7 +5708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="2:7">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B156">
         <v>5015151350128</v>
       </c>
@@ -5679,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="2:7">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B157">
         <v>5015151351518</v>
       </c>
@@ -5699,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="2:7">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B158">
         <v>5015151351519</v>
       </c>
@@ -5719,7 +5768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="2:7">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B159">
         <v>5015151350110</v>
       </c>
@@ -5739,7 +5788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="2:7">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B160">
         <v>5015151350144</v>
       </c>
@@ -5759,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="2:7">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B161">
         <v>5015151350137</v>
       </c>
@@ -5779,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="2:7">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B162">
         <v>5015151350139</v>
       </c>
@@ -5799,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="2:7">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B163">
         <v>5015151351516</v>
       </c>
@@ -5819,7 +5868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="2:7">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B164">
         <v>5015151350132</v>
       </c>
@@ -5839,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="2:7">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B165">
         <v>5015151351517</v>
       </c>
@@ -5859,7 +5908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:7">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B166">
         <v>5015151348275</v>
       </c>
@@ -5879,7 +5928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="2:7">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B167">
         <v>5015151348461</v>
       </c>
@@ -5899,7 +5948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="2:7">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B168">
         <v>5015151348650</v>
       </c>
@@ -5919,7 +5968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="2:7">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B169">
         <v>5015151348285</v>
       </c>
@@ -5939,7 +5988,7 @@
         <v>841.4</v>
       </c>
     </row>
-    <row r="170" spans="2:7">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B170">
         <v>5015151349100</v>
       </c>
@@ -5959,7 +6008,7 @@
         <v>2728.8</v>
       </c>
     </row>
-    <row r="171" spans="2:7">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B171">
         <v>5015151348470</v>
       </c>
@@ -5979,7 +6028,7 @@
         <v>23864</v>
       </c>
     </row>
-    <row r="172" spans="2:7">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B172">
         <v>5015151360165</v>
       </c>
@@ -5999,7 +6048,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="173" spans="2:7">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B173">
         <v>5015151348349</v>
       </c>
@@ -6019,7 +6068,7 @@
         <v>611.79999999999995</v>
       </c>
     </row>
-    <row r="174" spans="2:7">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B174">
         <v>5015151348399</v>
       </c>
@@ -6039,7 +6088,7 @@
         <v>576.1</v>
       </c>
     </row>
-    <row r="175" spans="2:7">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B175">
         <v>5015151363101</v>
       </c>
@@ -6059,7 +6108,7 @@
         <v>4470</v>
       </c>
     </row>
-    <row r="176" spans="2:7">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B176">
         <v>5015151360197</v>
       </c>
@@ -6079,7 +6128,7 @@
         <v>2922.3</v>
       </c>
     </row>
-    <row r="177" spans="2:7">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B177">
         <v>5015151362023</v>
       </c>
@@ -6099,7 +6148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="2:7">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B178">
         <v>5015151360190</v>
       </c>
@@ -6119,7 +6168,7 @@
         <v>9512</v>
       </c>
     </row>
-    <row r="179" spans="2:7">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B179">
         <v>5015151362012</v>
       </c>
@@ -6139,7 +6188,7 @@
         <v>5688</v>
       </c>
     </row>
-    <row r="180" spans="2:7">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B180">
         <v>5015151360160</v>
       </c>
@@ -6159,17 +6208,17 @@
         <v>3300</v>
       </c>
     </row>
-    <row r="181" spans="2:7">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="182" spans="2:7">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="183" spans="2:7">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B183">
         <v>5019230136115</v>
       </c>
@@ -6189,7 +6238,7 @@
         <v>20594.55</v>
       </c>
     </row>
-    <row r="184" spans="2:7">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B184">
         <v>5019230136354</v>
       </c>
@@ -6209,7 +6258,7 @@
         <v>3046.4</v>
       </c>
     </row>
-    <row r="185" spans="2:7">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B185">
         <v>5019230136248</v>
       </c>
@@ -6229,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="2:7">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B186">
         <v>5019230136250</v>
       </c>
@@ -6249,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="2:7">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B187">
         <v>5019230136010</v>
       </c>
@@ -6269,7 +6318,7 @@
         <v>3766.5</v>
       </c>
     </row>
-    <row r="188" spans="2:7">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B188">
         <v>5019230136060</v>
       </c>
@@ -6289,7 +6338,7 @@
         <v>3744</v>
       </c>
     </row>
-    <row r="189" spans="2:7">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B189">
         <v>5019230136100</v>
       </c>
@@ -6309,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:7">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B190">
         <v>5019230136600</v>
       </c>
@@ -6329,7 +6378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:7">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B191">
         <v>5019230136070</v>
       </c>
@@ -6349,7 +6398,7 @@
         <v>2565.6</v>
       </c>
     </row>
-    <row r="192" spans="2:7">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B192">
         <v>5019230136735</v>
       </c>
@@ -6369,7 +6418,7 @@
         <v>3028.95</v>
       </c>
     </row>
-    <row r="193" spans="2:7">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B193">
         <v>5019230136570</v>
       </c>
@@ -6389,7 +6438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="2:7">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B194">
         <v>5019230136755</v>
       </c>
@@ -6409,7 +6458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="2:7">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B195">
         <v>5019230136765</v>
       </c>
@@ -6429,7 +6478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="2:7">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B196">
         <v>5019230136213</v>
       </c>
@@ -6449,7 +6498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:7">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B197">
         <v>2</v>
       </c>
@@ -6469,7 +6518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="2:7">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B198">
         <v>501923013652</v>
       </c>
@@ -6489,7 +6538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="2:7">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B199">
         <v>5019230136081</v>
       </c>
@@ -6509,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="2:7">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B200">
         <v>5019230182197</v>
       </c>
@@ -6529,7 +6578,7 @@
         <v>832.5</v>
       </c>
     </row>
-    <row r="201" spans="2:7">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B201">
         <v>5019230137025</v>
       </c>
@@ -6549,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="2:7">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B202">
         <v>5019230182198</v>
       </c>
@@ -6569,7 +6618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="2:7">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B203">
         <v>5019230137024</v>
       </c>
@@ -6589,7 +6638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="2:7">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B204">
         <v>5019230137022</v>
       </c>
@@ -6609,7 +6658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="2:7">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B205">
         <v>5019230136740</v>
       </c>
@@ -6629,7 +6678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="2:7">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B206">
         <v>5019230137021</v>
       </c>
@@ -6649,7 +6698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="2:7">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B207">
         <v>5019230137023</v>
       </c>
@@ -6669,7 +6718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="2:7">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B208">
         <v>5019230189134</v>
       </c>
@@ -6689,7 +6738,7 @@
         <v>832.5</v>
       </c>
     </row>
-    <row r="209" spans="2:7">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B209">
         <v>5019230136959</v>
       </c>
@@ -6709,7 +6758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="2:7">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B210">
         <v>5019230189132</v>
       </c>
@@ -6729,7 +6778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="2:7">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B211">
         <v>5019230189133</v>
       </c>
@@ -6749,7 +6798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="2:7">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B212">
         <v>5019230136958</v>
       </c>
@@ -6769,17 +6818,17 @@
         <v>925</v>
       </c>
     </row>
-    <row r="213" spans="2:7">
+    <row r="213" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B213" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="214" spans="2:7">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B214" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="215" spans="2:7">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B215">
         <v>5017183094892</v>
       </c>
@@ -6799,7 +6848,7 @@
         <v>279.68</v>
       </c>
     </row>
-    <row r="216" spans="2:7">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B216">
         <v>5018170897182</v>
       </c>
@@ -6819,7 +6868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="2:7">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B217">
         <v>5018170850311</v>
       </c>
@@ -6839,7 +6888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="2:7">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B218">
         <v>5018170850314</v>
       </c>
@@ -6859,7 +6908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="2:7">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B219">
         <v>5018170850316</v>
       </c>
@@ -6879,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="2:7">
+    <row r="220" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B220">
         <v>5018170897184</v>
       </c>
@@ -6899,7 +6948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="2:7">
+    <row r="221" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B221">
         <v>5018170899186</v>
       </c>
@@ -6919,7 +6968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="2:7">
+    <row r="222" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B222">
         <v>5018170841220</v>
       </c>
@@ -6939,7 +6988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="2:7">
+    <row r="223" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B223">
         <v>5018170848163</v>
       </c>
@@ -6959,7 +7008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="2:7">
+    <row r="224" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B224">
         <v>5016170648321</v>
       </c>
@@ -6979,7 +7028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="2:7">
+    <row r="225" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B225">
         <v>1012152231627</v>
       </c>
@@ -6999,7 +7048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="2:7">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B226">
         <v>1008</v>
       </c>
@@ -7019,7 +7068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="2:7">
+    <row r="227" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B227">
         <v>1012152248262</v>
       </c>
@@ -7039,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="2:7">
+    <row r="228" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B228">
         <v>5018170848262</v>
       </c>
@@ -7059,7 +7108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="2:7">
+    <row r="229" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B229">
         <v>5018170848240</v>
       </c>
@@ -7079,7 +7128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="2:7">
+    <row r="230" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B230">
         <v>5018170848317</v>
       </c>
@@ -7099,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="2:7">
+    <row r="231" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B231">
         <v>5018170848295</v>
       </c>
@@ -7119,7 +7168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="2:7">
+    <row r="232" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B232">
         <v>5018170848335</v>
       </c>
@@ -7139,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="2:7">
+    <row r="233" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B233">
         <v>1012152221811</v>
       </c>
@@ -7159,7 +7208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="2:7">
+    <row r="234" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B234">
         <v>5018170848111</v>
       </c>
@@ -7179,7 +7228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="2:7">
+    <row r="235" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B235">
         <v>5018170848113</v>
       </c>
@@ -7199,7 +7248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="2:7">
+    <row r="236" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B236">
         <v>5018170848112</v>
       </c>
@@ -7219,7 +7268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="2:7">
+    <row r="237" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B237">
         <v>501783091578</v>
       </c>
@@ -7239,7 +7288,7 @@
         <v>524.4</v>
       </c>
     </row>
-    <row r="238" spans="2:7">
+    <row r="238" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B238">
         <v>5017183091577</v>
       </c>
@@ -7259,7 +7308,7 @@
         <v>174.8</v>
       </c>
     </row>
-    <row r="239" spans="2:7">
+    <row r="239" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B239">
         <v>5017183090573</v>
       </c>
@@ -7279,7 +7328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="2:7">
+    <row r="240" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B240">
         <v>5017183074213</v>
       </c>
@@ -7299,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="2:7">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B241">
         <v>5017183074210</v>
       </c>
@@ -7319,7 +7368,7 @@
         <v>899.19</v>
       </c>
     </row>
-    <row r="242" spans="2:7">
+    <row r="242" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B242">
         <v>5017183074211</v>
       </c>
@@ -7339,7 +7388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="2:7">
+    <row r="243" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B243">
         <v>5017183074214</v>
       </c>
@@ -7359,7 +7408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="2:7">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B244">
         <v>5017183074212</v>
       </c>
@@ -7379,17 +7428,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="2:7">
+    <row r="245" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B245" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="246" spans="2:7">
+    <row r="246" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B246" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="247" spans="2:7">
+    <row r="247" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B247">
         <v>5017183229471</v>
       </c>
@@ -7409,7 +7458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="2:7">
+    <row r="248" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B248">
         <v>5013170148022</v>
       </c>
@@ -7429,7 +7478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="2:7">
+    <row r="249" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B249">
         <v>5020230799397</v>
       </c>
@@ -7449,7 +7498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="2:7">
+    <row r="250" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B250">
         <v>5013170150123</v>
       </c>
@@ -7469,7 +7518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="2:7">
+    <row r="251" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B251">
         <v>5013170252011</v>
       </c>
@@ -7489,7 +7538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="2:7">
+    <row r="252" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B252">
         <v>5020230751999</v>
       </c>
@@ -7509,7 +7558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="2:7">
+    <row r="253" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B253">
         <v>5013170148119</v>
       </c>
@@ -7529,7 +7578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="2:7">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B254">
         <v>5013170151871</v>
       </c>
@@ -7549,7 +7598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="2:7">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B255">
         <v>5013170148212</v>
       </c>
@@ -7569,7 +7618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="2:7">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B256">
         <v>5013170182193</v>
       </c>
@@ -7589,7 +7638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="2:7">
+    <row r="257" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B257">
         <v>5013170148228</v>
       </c>
@@ -7609,7 +7658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="2:7">
+    <row r="258" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B258">
         <v>5020230748150</v>
       </c>
@@ -7629,7 +7678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="2:7">
+    <row r="259" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B259">
         <v>5013170248178</v>
       </c>
@@ -7649,7 +7698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="2:7">
+    <row r="260" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B260">
         <v>5020230748167</v>
       </c>
@@ -7669,7 +7718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="2:7">
+    <row r="261" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B261">
         <v>5013170248182</v>
       </c>
@@ -7689,7 +7738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="2:7">
+    <row r="262" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B262">
         <v>1005</v>
       </c>
@@ -7709,7 +7758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="2:7">
+    <row r="263" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B263">
         <v>5013170179114</v>
       </c>
@@ -7729,7 +7778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="2:7">
+    <row r="264" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B264">
         <v>1003</v>
       </c>
@@ -7749,7 +7798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="2:7">
+    <row r="265" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B265">
         <v>5013170147985</v>
       </c>
@@ -7769,7 +7818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="2:7">
+    <row r="266" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B266">
         <v>5020230748005</v>
       </c>
@@ -7789,7 +7838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="2:7">
+    <row r="267" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B267">
         <v>5013170148099</v>
       </c>
@@ -7809,7 +7858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="2:7">
+    <row r="268" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B268">
         <v>5013170148076</v>
       </c>
@@ -7829,7 +7878,7 @@
         <v>5227.2</v>
       </c>
     </row>
-    <row r="269" spans="2:7">
+    <row r="269" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B269">
         <v>5013170147991</v>
       </c>
@@ -7849,7 +7898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="2:7">
+    <row r="270" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B270">
         <v>5013170147995</v>
       </c>
@@ -7869,7 +7918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="2:7">
+    <row r="271" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B271">
         <v>5013170248229</v>
       </c>
@@ -7889,7 +7938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="2:7">
+    <row r="272" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B272">
         <v>5013170252007</v>
       </c>
@@ -7909,7 +7958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="2:7">
+    <row r="273" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B273">
         <v>5020230748300</v>
       </c>
@@ -7929,7 +7978,7 @@
         <v>48239.1</v>
       </c>
     </row>
-    <row r="274" spans="2:7">
+    <row r="274" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B274">
         <v>5020230748233</v>
       </c>
@@ -7949,7 +7998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="2:7">
+    <row r="275" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B275">
         <v>5013170148071</v>
       </c>
@@ -7969,7 +8018,7 @@
         <v>31897.8</v>
       </c>
     </row>
-    <row r="276" spans="2:7">
+    <row r="276" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B276">
         <v>5013170148019</v>
       </c>
@@ -7989,7 +8038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="2:7">
+    <row r="277" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B277">
         <v>5013170148100</v>
       </c>
@@ -8009,7 +8058,7 @@
         <v>3944.16</v>
       </c>
     </row>
-    <row r="278" spans="2:7">
+    <row r="278" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B278">
         <v>5013170148075</v>
       </c>
@@ -8029,7 +8078,7 @@
         <v>687.6</v>
       </c>
     </row>
-    <row r="279" spans="2:7">
+    <row r="279" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B279">
         <v>5013170148079</v>
       </c>
@@ -8049,7 +8098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="2:7">
+    <row r="280" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B280">
         <v>5013170245000</v>
       </c>
@@ -8069,7 +8118,7 @@
         <v>4993.2</v>
       </c>
     </row>
-    <row r="281" spans="2:7">
+    <row r="281" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B281">
         <v>5013170245109</v>
       </c>
@@ -8089,7 +8138,7 @@
         <v>2251.8000000000002</v>
       </c>
     </row>
-    <row r="282" spans="2:7">
+    <row r="282" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B282">
         <v>5013170148250</v>
       </c>
@@ -8109,7 +8158,7 @@
         <v>2191.1999999999998</v>
       </c>
     </row>
-    <row r="283" spans="2:7">
+    <row r="283" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B283">
         <v>5013170148230</v>
       </c>
@@ -8129,7 +8178,7 @@
         <v>9063.6</v>
       </c>
     </row>
-    <row r="284" spans="2:7">
+    <row r="284" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B284">
         <v>5013170148241</v>
       </c>
@@ -8149,7 +8198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="2:7">
+    <row r="285" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B285">
         <v>5013170151021</v>
       </c>
@@ -8169,7 +8218,7 @@
         <v>5259.6</v>
       </c>
     </row>
-    <row r="286" spans="2:7">
+    <row r="286" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B286">
         <v>5013170151022</v>
       </c>
@@ -8189,17 +8238,17 @@
         <v>697.2</v>
       </c>
     </row>
-    <row r="287" spans="2:7">
+    <row r="287" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B287" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="288" spans="2:7">
+    <row r="288" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B288" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="289" spans="2:7">
+    <row r="289" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B289">
         <v>8014160538081</v>
       </c>
@@ -8219,7 +8268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="2:7">
+    <row r="290" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B290">
         <v>8014160538082</v>
       </c>
@@ -8239,7 +8288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="2:7">
+    <row r="291" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B291">
         <v>8014160538083</v>
       </c>
@@ -8259,7 +8308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="2:7">
+    <row r="292" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B292">
         <v>5011200362915</v>
       </c>
@@ -8279,7 +8328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="2:7">
+    <row r="293" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B293">
         <v>5011200379281</v>
       </c>
@@ -8299,7 +8348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="2:7">
+    <row r="294" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B294">
         <v>5011200379282</v>
       </c>
@@ -8319,7 +8368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="2:7">
+    <row r="295" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B295">
         <v>5011200304160</v>
       </c>
@@ -8339,7 +8388,7 @@
         <v>10452</v>
       </c>
     </row>
-    <row r="296" spans="2:7">
+    <row r="296" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B296">
         <v>5011200304075</v>
       </c>
@@ -8359,7 +8408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="2:7">
+    <row r="297" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B297">
         <v>5011200386339</v>
       </c>
@@ -8379,7 +8428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="2:7">
+    <row r="298" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B298">
         <v>5011200310251</v>
       </c>
@@ -8399,7 +8448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="2:7">
+    <row r="299" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B299">
         <v>5011200308005</v>
       </c>
@@ -8419,7 +8468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="2:7">
+    <row r="300" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B300">
         <v>5011200308010</v>
       </c>
@@ -8439,7 +8488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="2:7">
+    <row r="301" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B301">
         <v>5011200308012</v>
       </c>
@@ -8459,7 +8508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="2:7">
+    <row r="302" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B302">
         <v>5011200363516</v>
       </c>
@@ -8479,7 +8528,7 @@
         <v>4547.7</v>
       </c>
     </row>
-    <row r="303" spans="2:7">
+    <row r="303" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B303">
         <v>5011200363514</v>
       </c>
@@ -8499,7 +8548,7 @@
         <v>2542.8000000000002</v>
       </c>
     </row>
-    <row r="304" spans="2:7">
+    <row r="304" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B304">
         <v>5011200363518</v>
       </c>
@@ -8519,7 +8568,7 @@
         <v>1295.8499999999999</v>
       </c>
     </row>
-    <row r="305" spans="2:7">
+    <row r="305" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B305">
         <v>5011200363519</v>
       </c>
@@ -8539,7 +8588,7 @@
         <v>4425.45</v>
       </c>
     </row>
-    <row r="306" spans="2:7">
+    <row r="306" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B306">
         <v>5011200344070</v>
       </c>
@@ -8559,7 +8608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="2:7">
+    <row r="307" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B307">
         <v>5011200308140</v>
       </c>
@@ -8579,7 +8628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="2:7">
+    <row r="308" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B308">
         <v>5011200384153</v>
       </c>
@@ -8599,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="2:7">
+    <row r="309" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B309">
         <v>5011200386290</v>
       </c>
@@ -8619,7 +8668,7 @@
         <v>2211.79</v>
       </c>
     </row>
-    <row r="310" spans="2:7">
+    <row r="310" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B310">
         <v>5011200387664</v>
       </c>
@@ -8639,7 +8688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="2:7">
+    <row r="311" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B311">
         <v>5011200308050</v>
       </c>
@@ -8659,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="2:7">
+    <row r="312" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B312">
         <v>5011200308125</v>
       </c>
@@ -8679,7 +8728,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="313" spans="2:7">
+    <row r="313" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B313">
         <v>5011200308130</v>
       </c>
@@ -8699,7 +8748,7 @@
         <v>10086.959999999999</v>
       </c>
     </row>
-    <row r="314" spans="2:7">
+    <row r="314" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B314">
         <v>5011200387164</v>
       </c>
@@ -8719,7 +8768,7 @@
         <v>26881.56</v>
       </c>
     </row>
-    <row r="315" spans="2:7">
+    <row r="315" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B315">
         <v>5011200308180</v>
       </c>
@@ -8739,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="2:7">
+    <row r="316" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B316">
         <v>5011200308700</v>
       </c>
@@ -8759,7 +8808,7 @@
         <v>8201.16</v>
       </c>
     </row>
-    <row r="317" spans="2:7">
+    <row r="317" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B317">
         <v>5011200308750</v>
       </c>
@@ -8779,7 +8828,7 @@
         <v>12367.56</v>
       </c>
     </row>
-    <row r="318" spans="2:7">
+    <row r="318" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B318">
         <v>5011200308753</v>
       </c>
@@ -8799,7 +8848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="2:7">
+    <row r="319" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B319">
         <v>5011200308330</v>
       </c>
@@ -8819,7 +8868,7 @@
         <v>42668.78</v>
       </c>
     </row>
-    <row r="320" spans="2:7">
+    <row r="320" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B320">
         <v>5011200308305</v>
       </c>
@@ -8839,7 +8888,7 @@
         <v>56773.2</v>
       </c>
     </row>
-    <row r="321" spans="2:7">
+    <row r="321" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B321">
         <v>5011200308307</v>
       </c>
@@ -8859,7 +8908,7 @@
         <v>38485.26</v>
       </c>
     </row>
-    <row r="322" spans="2:7">
+    <row r="322" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B322">
         <v>5011200308310</v>
       </c>
@@ -8879,7 +8928,7 @@
         <v>21056.12</v>
       </c>
     </row>
-    <row r="323" spans="2:7">
+    <row r="323" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B323">
         <v>5011200308890</v>
       </c>
@@ -8899,7 +8948,7 @@
         <v>10860.96</v>
       </c>
     </row>
-    <row r="324" spans="2:7">
+    <row r="324" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B324">
         <v>5011200338912</v>
       </c>
@@ -8919,7 +8968,7 @@
         <v>11007.36</v>
       </c>
     </row>
-    <row r="325" spans="2:7">
+    <row r="325" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B325">
         <v>5011200310258</v>
       </c>
@@ -8939,7 +8988,7 @@
         <v>987.12</v>
       </c>
     </row>
-    <row r="326" spans="2:7">
+    <row r="326" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B326">
         <v>5011200398722</v>
       </c>
@@ -8959,7 +9008,7 @@
         <v>16493.400000000001</v>
       </c>
     </row>
-    <row r="327" spans="2:7">
+    <row r="327" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B327">
         <v>5011200344025</v>
       </c>
@@ -8979,7 +9028,7 @@
         <v>1747.44</v>
       </c>
     </row>
-    <row r="328" spans="2:7">
+    <row r="328" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B328">
         <v>5011200347151</v>
       </c>
@@ -8999,7 +9048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="2:7">
+    <row r="329" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B329">
         <v>5011200344215</v>
       </c>
@@ -9019,7 +9068,7 @@
         <v>3216</v>
       </c>
     </row>
-    <row r="330" spans="2:7">
+    <row r="330" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B330">
         <v>5011200347164</v>
       </c>
@@ -9039,7 +9088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="2:7">
+    <row r="331" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B331">
         <v>5011200347163</v>
       </c>
@@ -9059,7 +9108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="2:7">
+    <row r="332" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B332">
         <v>5011200387643</v>
       </c>
@@ -9079,7 +9128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="2:7">
+    <row r="333" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B333">
         <v>5011200387944</v>
       </c>
@@ -9099,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="2:7">
+    <row r="334" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B334">
         <v>5011200397998</v>
       </c>
@@ -9119,7 +9168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="2:7">
+    <row r="335" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B335">
         <v>5011200397996</v>
       </c>
@@ -9139,7 +9188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="2:7">
+    <row r="336" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B336">
         <v>5011200372106</v>
       </c>
@@ -9159,7 +9208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="2:7">
+    <row r="337" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B337">
         <v>5011200387941</v>
       </c>
@@ -9179,7 +9228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="2:7">
+    <row r="338" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B338">
         <v>5011200310302</v>
       </c>
@@ -9199,7 +9248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="2:7">
+    <row r="339" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B339">
         <v>5011200308105</v>
       </c>
@@ -9219,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="2:7">
+    <row r="340" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B340">
         <v>5011200300253</v>
       </c>
@@ -9239,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="2:7">
+    <row r="341" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B341">
         <v>5011200324059</v>
       </c>
@@ -9259,7 +9308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="2:7">
+    <row r="342" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B342">
         <v>5011200347167</v>
       </c>
@@ -9279,7 +9328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="2:7">
+    <row r="343" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B343">
         <v>5011200399784</v>
       </c>
@@ -9299,7 +9348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="2:7">
+    <row r="344" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B344">
         <v>5011200398723</v>
       </c>
@@ -9319,7 +9368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="2:7">
+    <row r="345" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B345">
         <v>5011200372110</v>
       </c>
@@ -9339,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="2:7">
+    <row r="346" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B346">
         <v>5011200372059</v>
       </c>
@@ -9359,7 +9408,7 @@
         <v>648.36</v>
       </c>
     </row>
-    <row r="347" spans="2:7">
+    <row r="347" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B347">
         <v>5011200377969</v>
       </c>
@@ -9379,7 +9428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="2:7">
+    <row r="348" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B348">
         <v>5011200310304</v>
       </c>
@@ -9399,7 +9448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="2:7">
+    <row r="349" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B349">
         <v>5011200372055</v>
       </c>
@@ -9419,7 +9468,7 @@
         <v>1008.56</v>
       </c>
     </row>
-    <row r="350" spans="2:7">
+    <row r="350" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B350">
         <v>5011200348100</v>
       </c>
@@ -9439,7 +9488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="2:7">
+    <row r="351" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B351">
         <v>5011200304411</v>
       </c>
@@ -9459,7 +9508,7 @@
         <v>593.4</v>
       </c>
     </row>
-    <row r="352" spans="2:7">
+    <row r="352" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B352">
         <v>5011200372168</v>
       </c>
@@ -9479,7 +9528,7 @@
         <v>21.26</v>
       </c>
     </row>
-    <row r="353" spans="2:7">
+    <row r="353" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B353">
         <v>5011200304418</v>
       </c>
@@ -9499,7 +9548,7 @@
         <v>21881.15</v>
       </c>
     </row>
-    <row r="354" spans="2:7">
+    <row r="354" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B354">
         <v>5011200389241</v>
       </c>
@@ -9519,7 +9568,7 @@
         <v>28476.76</v>
       </c>
     </row>
-    <row r="355" spans="2:7">
+    <row r="355" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B355">
         <v>5011200389973</v>
       </c>
@@ -9539,7 +9588,7 @@
         <v>2381.96</v>
       </c>
     </row>
-    <row r="356" spans="2:7">
+    <row r="356" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B356">
         <v>5011200375007</v>
       </c>
@@ -9559,7 +9608,7 @@
         <v>24513.96</v>
       </c>
     </row>
-    <row r="357" spans="2:7">
+    <row r="357" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B357">
         <v>5011200375008</v>
       </c>
@@ -9579,7 +9628,7 @@
         <v>39933</v>
       </c>
     </row>
-    <row r="358" spans="2:7">
+    <row r="358" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B358">
         <v>5011200398721</v>
       </c>
@@ -9599,7 +9648,7 @@
         <v>3794.58</v>
       </c>
     </row>
-    <row r="359" spans="2:7">
+    <row r="359" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B359">
         <v>5011200397662</v>
       </c>
@@ -9619,7 +9668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="2:7">
+    <row r="360" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B360">
         <v>5011200351214</v>
       </c>
@@ -9639,7 +9688,7 @@
         <v>13259.4</v>
       </c>
     </row>
-    <row r="361" spans="2:7">
+    <row r="361" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B361">
         <v>5011200348081</v>
       </c>
@@ -9659,7 +9708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="2:7">
+    <row r="362" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B362">
         <v>5011200348082</v>
       </c>
@@ -9679,7 +9728,7 @@
         <v>2925.78</v>
       </c>
     </row>
-    <row r="363" spans="2:7">
+    <row r="363" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B363">
         <v>5011200348097</v>
       </c>
@@ -9699,7 +9748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="2:7">
+    <row r="364" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B364">
         <v>5011200348095</v>
       </c>
@@ -9719,7 +9768,7 @@
         <v>5096.5200000000004</v>
       </c>
     </row>
-    <row r="365" spans="2:7">
+    <row r="365" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B365">
         <v>5011200348093</v>
       </c>
@@ -9739,7 +9788,7 @@
         <v>3523.52</v>
       </c>
     </row>
-    <row r="366" spans="2:7">
+    <row r="366" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B366">
         <v>5011200387163</v>
       </c>
@@ -9759,7 +9808,7 @@
         <v>4855.1099999999997</v>
       </c>
     </row>
-    <row r="367" spans="2:7">
+    <row r="367" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B367">
         <v>5011200384046</v>
       </c>
@@ -9779,7 +9828,7 @@
         <v>32879.800000000003</v>
       </c>
     </row>
-    <row r="368" spans="2:7">
+    <row r="368" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B368">
         <v>5011200384094</v>
       </c>
@@ -9799,7 +9848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="2:7">
+    <row r="369" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B369">
         <v>5011200360313</v>
       </c>
@@ -9819,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="2:7">
+    <row r="370" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B370">
         <v>5011200362571</v>
       </c>
@@ -9839,7 +9888,7 @@
         <v>20504.88</v>
       </c>
     </row>
-    <row r="371" spans="2:7">
+    <row r="371" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B371">
         <v>5011200362572</v>
       </c>
@@ -9859,7 +9908,7 @@
         <v>18640.8</v>
       </c>
     </row>
-    <row r="372" spans="2:7">
+    <row r="372" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B372">
         <v>5011200362510</v>
       </c>
@@ -9879,7 +9928,7 @@
         <v>6168</v>
       </c>
     </row>
-    <row r="373" spans="2:7">
+    <row r="373" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B373">
         <v>5011200362570</v>
       </c>
@@ -9899,7 +9948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="2:7">
+    <row r="374" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B374">
         <v>5011200392191</v>
       </c>
@@ -9919,7 +9968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="2:7">
+    <row r="375" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B375">
         <v>5011200399187</v>
       </c>
@@ -9939,7 +9988,7 @@
         <v>16450.2</v>
       </c>
     </row>
-    <row r="376" spans="2:7">
+    <row r="376" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B376">
         <v>5011200374517</v>
       </c>
@@ -9959,7 +10008,7 @@
         <v>224.55</v>
       </c>
     </row>
-    <row r="377" spans="2:7">
+    <row r="377" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B377">
         <v>5011200374519</v>
       </c>
@@ -9979,7 +10028,7 @@
         <v>31374.21</v>
       </c>
     </row>
-    <row r="378" spans="2:7">
+    <row r="378" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B378">
         <v>5011200374518</v>
       </c>
@@ -9999,7 +10048,7 @@
         <v>17921.439999999999</v>
       </c>
     </row>
-    <row r="379" spans="2:7">
+    <row r="379" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B379">
         <v>5011200398724</v>
       </c>
@@ -10019,7 +10068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="2:7">
+    <row r="380" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B380">
         <v>5011200372227</v>
       </c>
@@ -10039,17 +10088,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="2:7">
+    <row r="381" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B381" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="382" spans="2:7">
+    <row r="382" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B382" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="383" spans="2:7">
+    <row r="383" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B383">
         <v>5011200228006</v>
       </c>
@@ -10069,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="2:7">
+    <row r="384" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B384">
         <v>5011200204061</v>
       </c>
@@ -10089,7 +10138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="2:7">
+    <row r="385" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B385">
         <v>3</v>
       </c>
@@ -10109,7 +10158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="2:7">
+    <row r="386" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B386">
         <v>5011200204770</v>
       </c>
@@ -10129,7 +10178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="2:7">
+    <row r="387" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B387">
         <v>5011200229930</v>
       </c>
@@ -10149,7 +10198,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="388" spans="2:7">
+    <row r="388" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B388">
         <v>5011200209360</v>
       </c>
@@ -10169,7 +10218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="2:7">
+    <row r="389" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B389">
         <v>5011200208370</v>
       </c>
@@ -10189,7 +10238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="2:7">
+    <row r="390" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B390">
         <v>5011200229940</v>
       </c>
@@ -10209,7 +10258,7 @@
         <v>262.8</v>
       </c>
     </row>
-    <row r="391" spans="2:7">
+    <row r="391" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B391">
         <v>5011200206360</v>
       </c>
@@ -10229,7 +10278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="2:7">
+    <row r="392" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B392">
         <v>4</v>
       </c>
@@ -10249,7 +10298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="2:7">
+    <row r="393" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B393">
         <v>5011200203204</v>
       </c>
@@ -10269,7 +10318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="2:7">
+    <row r="394" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B394">
         <v>11200208591</v>
       </c>
@@ -10289,7 +10338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="2:7">
+    <row r="395" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B395">
         <v>11200204450</v>
       </c>
@@ -10309,7 +10358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="2:7">
+    <row r="396" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B396">
         <v>1004</v>
       </c>
@@ -10329,7 +10378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="2:7">
+    <row r="397" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B397">
         <v>5011200226550</v>
       </c>
@@ -10349,7 +10398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="2:7">
+    <row r="398" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B398">
         <v>5011200226548</v>
       </c>
@@ -10369,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="2:7">
+    <row r="399" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B399">
         <v>5011200220121</v>
       </c>
@@ -10389,7 +10438,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="400" spans="2:7">
+    <row r="400" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B400">
         <v>5011200298117</v>
       </c>
@@ -10409,7 +10458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="2:7">
+    <row r="401" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B401">
         <v>5011200214706</v>
       </c>
@@ -10429,7 +10478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="2:7">
+    <row r="402" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B402">
         <v>5011200214707</v>
       </c>
@@ -10449,7 +10498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="2:7">
+    <row r="403" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B403">
         <v>5011200214709</v>
       </c>
@@ -10469,7 +10518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="2:7">
+    <row r="404" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B404">
         <v>5011200214708</v>
       </c>
@@ -10489,7 +10538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="2:7">
+    <row r="405" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B405">
         <v>5011200227909</v>
       </c>
@@ -10509,7 +10558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="2:7">
+    <row r="406" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B406">
         <v>5011200227955</v>
       </c>
@@ -10529,7 +10578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="2:7">
+    <row r="407" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B407">
         <v>5011200287935</v>
       </c>
@@ -10549,7 +10598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="2:7">
+    <row r="408" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B408">
         <v>5011200210118</v>
       </c>
@@ -10569,7 +10618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="2:7">
+    <row r="409" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B409">
         <v>5011200210110</v>
       </c>
@@ -10589,7 +10638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="2:7">
+    <row r="410" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B410">
         <v>5011200222851</v>
       </c>
@@ -10609,7 +10658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="2:7">
+    <row r="411" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B411">
         <v>5011200229032</v>
       </c>
@@ -10629,7 +10678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="2:7">
+    <row r="412" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B412">
         <v>5011200229027</v>
       </c>
@@ -10649,7 +10698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="2:7">
+    <row r="413" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B413">
         <v>5011200229022</v>
       </c>
@@ -10669,7 +10718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="2:7">
+    <row r="414" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B414">
         <v>5011200229026</v>
       </c>
@@ -10689,7 +10738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="2:7">
+    <row r="415" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B415">
         <v>5011200229031</v>
       </c>
@@ -10709,7 +10758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="2:7">
+    <row r="416" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B416">
         <v>5011200229028</v>
       </c>
@@ -10729,7 +10778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="2:7">
+    <row r="417" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B417">
         <v>5011200229023</v>
       </c>
@@ -10749,7 +10798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="2:7">
+    <row r="418" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B418">
         <v>5011200229025</v>
       </c>
@@ -10769,7 +10818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="2:7">
+    <row r="419" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B419">
         <v>5011200225080</v>
       </c>
@@ -10789,7 +10838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="2:7">
+    <row r="420" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B420">
         <v>5011200224750</v>
       </c>
@@ -10809,7 +10858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="2:7">
+    <row r="421" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B421">
         <v>5011200265227</v>
       </c>
@@ -10829,7 +10878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="2:7">
+    <row r="422" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B422">
         <v>5011200265228</v>
       </c>
@@ -10849,7 +10898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="2:7">
+    <row r="423" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B423">
         <v>5011200265226</v>
       </c>
@@ -10869,7 +10918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="2:7">
+    <row r="424" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B424">
         <v>5011200236245</v>
       </c>
@@ -10889,7 +10938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="2:7">
+    <row r="425" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B425">
         <v>5011200273255</v>
       </c>
@@ -10909,7 +10958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="2:7">
+    <row r="426" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B426">
         <v>11200206962</v>
       </c>
@@ -10929,7 +10978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="2:7">
+    <row r="427" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B427">
         <v>5011200228525</v>
       </c>
@@ -10949,7 +10998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="2:7">
+    <row r="428" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B428">
         <v>5011200291342</v>
       </c>
@@ -10969,7 +11018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="2:7">
+    <row r="429" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B429">
         <v>5011200217569</v>
       </c>
@@ -10989,7 +11038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="2:7">
+    <row r="430" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B430">
         <v>5011200223611</v>
       </c>
@@ -11009,7 +11058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="2:7">
+    <row r="431" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B431">
         <v>5011200217642</v>
       </c>
@@ -11029,7 +11078,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="432" spans="2:7">
+    <row r="432" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B432">
         <v>5011200217881</v>
       </c>
@@ -11049,7 +11098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="2:7">
+    <row r="433" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B433">
         <v>11200217278</v>
       </c>
@@ -11069,7 +11118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="2:7">
+    <row r="434" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B434">
         <v>5011200291341</v>
       </c>
@@ -11089,7 +11138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="2:7">
+    <row r="435" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B435">
         <v>5011200299851</v>
       </c>
@@ -11109,7 +11158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="2:7">
+    <row r="436" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B436">
         <v>5011200282193</v>
       </c>
@@ -11129,7 +11178,7 @@
         <v>11072.2</v>
       </c>
     </row>
-    <row r="437" spans="2:7">
+    <row r="437" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B437">
         <v>1200263588</v>
       </c>
@@ -11149,7 +11198,7 @@
         <v>906.5</v>
       </c>
     </row>
-    <row r="438" spans="2:7">
+    <row r="438" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B438">
         <v>5011200220247</v>
       </c>
@@ -11169,7 +11218,7 @@
         <v>4080</v>
       </c>
     </row>
-    <row r="439" spans="2:7">
+    <row r="439" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B439">
         <v>5011200209239</v>
       </c>
@@ -11189,7 +11238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="2:7">
+    <row r="440" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B440">
         <v>5011200209229</v>
       </c>
@@ -11209,7 +11258,7 @@
         <v>1675.2</v>
       </c>
     </row>
-    <row r="441" spans="2:7">
+    <row r="441" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B441">
         <v>5011200227034</v>
       </c>
@@ -11229,7 +11278,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="442" spans="2:7">
+    <row r="442" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B442">
         <v>5011200212295</v>
       </c>
@@ -11249,7 +11298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="2:7">
+    <row r="443" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B443">
         <v>5011200272876</v>
       </c>
@@ -11269,7 +11318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="2:7">
+    <row r="444" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B444">
         <v>5011200272924</v>
       </c>
@@ -11289,7 +11338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="2:7">
+    <row r="445" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B445">
         <v>5011200262265</v>
       </c>
@@ -11309,7 +11358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="2:7">
+    <row r="446" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B446">
         <v>501120089117</v>
       </c>
@@ -11329,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="2:7">
+    <row r="447" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B447">
         <v>5011200262500</v>
       </c>
@@ -11349,7 +11398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="2:7">
+    <row r="448" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B448">
         <v>100015485</v>
       </c>
@@ -11369,7 +11418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="2:7">
+    <row r="449" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B449">
         <v>5011200275365</v>
       </c>
@@ -11389,7 +11438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="2:7">
+    <row r="450" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B450">
         <v>5011200275355</v>
       </c>
@@ -11409,7 +11458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="2:7">
+    <row r="451" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B451">
         <v>5011200217265</v>
       </c>
@@ -11429,7 +11478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="2:7">
+    <row r="452" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B452">
         <v>5011200260946</v>
       </c>
@@ -11449,7 +11498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="2:7">
+    <row r="453" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B453">
         <v>5011200282931</v>
       </c>
@@ -11469,7 +11518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="2:7">
+    <row r="454" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B454">
         <v>5011200206140</v>
       </c>
@@ -11489,7 +11538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="2:7">
+    <row r="455" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B455">
         <v>5011200263231</v>
       </c>
@@ -11509,7 +11558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="2:7">
+    <row r="456" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B456">
         <v>5011200204315</v>
       </c>
@@ -11529,7 +11578,7 @@
         <v>2140</v>
       </c>
     </row>
-    <row r="457" spans="2:7">
+    <row r="457" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B457">
         <v>5011200204320</v>
       </c>
@@ -11549,7 +11598,7 @@
         <v>13098</v>
       </c>
     </row>
-    <row r="458" spans="2:7">
+    <row r="458" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B458">
         <v>5011200299843</v>
       </c>
@@ -11569,7 +11618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="2:7">
+    <row r="459" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B459">
         <v>5011200229018</v>
       </c>
@@ -11589,7 +11638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="2:7">
+    <row r="460" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B460">
         <v>5011200229011</v>
       </c>
@@ -11609,7 +11658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="2:7">
+    <row r="461" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B461">
         <v>5011200261301</v>
       </c>
@@ -11629,7 +11678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="2:7">
+    <row r="462" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B462">
         <v>5011200261310</v>
       </c>
@@ -11649,7 +11698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="2:7">
+    <row r="463" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B463">
         <v>5011200210258</v>
       </c>
@@ -11669,7 +11718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="2:7">
+    <row r="464" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B464">
         <v>5011200272155</v>
       </c>
@@ -11689,7 +11738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="2:7">
+    <row r="465" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B465">
         <v>5011200274403</v>
       </c>
@@ -11709,7 +11758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="2:7">
+    <row r="466" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B466">
         <v>5011200299671</v>
       </c>
@@ -11729,7 +11778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="2:7">
+    <row r="467" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B467">
         <v>5011200299672</v>
       </c>
@@ -11749,7 +11798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="2:7">
+    <row r="468" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B468">
         <v>5011200209242</v>
       </c>
@@ -11769,7 +11818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="2:7">
+    <row r="469" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B469">
         <v>5011200274218</v>
       </c>
@@ -11789,7 +11838,7 @@
         <v>11030.55</v>
       </c>
     </row>
-    <row r="470" spans="2:7">
+    <row r="470" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B470">
         <v>5011200273201</v>
       </c>
@@ -11809,7 +11858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="2:7">
+    <row r="471" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B471">
         <v>5011200208371</v>
       </c>
@@ -11829,7 +11878,7 @@
         <v>5420.8</v>
       </c>
     </row>
-    <row r="472" spans="2:7">
+    <row r="472" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B472">
         <v>5011200273777</v>
       </c>
@@ -11849,7 +11898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="2:7">
+    <row r="473" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B473">
         <v>5011200297593</v>
       </c>
@@ -11869,7 +11918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="2:7">
+    <row r="474" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B474">
         <v>5011200297596</v>
       </c>
@@ -11889,7 +11938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="2:7">
+    <row r="475" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B475">
         <v>5011200297595</v>
       </c>
@@ -11909,7 +11958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="2:7">
+    <row r="476" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B476">
         <v>5011200217910</v>
       </c>
@@ -11929,7 +11978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="2:7">
+    <row r="477" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B477">
         <v>5011200217905</v>
       </c>
@@ -11949,7 +11998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="2:7">
+    <row r="478" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B478">
         <v>5011200209291</v>
       </c>
@@ -11969,7 +12018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="2:7">
+    <row r="479" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B479">
         <v>5011200209292</v>
       </c>
@@ -11989,7 +12038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="2:7">
+    <row r="480" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B480">
         <v>5011200209293</v>
       </c>
@@ -12009,7 +12058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="2:7">
+    <row r="481" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B481">
         <v>5011200273781</v>
       </c>
@@ -12029,7 +12078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="2:7">
+    <row r="482" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B482">
         <v>5011200208653</v>
       </c>
@@ -12049,7 +12098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="2:7">
+    <row r="483" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B483">
         <v>5011200208369</v>
       </c>
@@ -12069,7 +12118,7 @@
         <v>448.8</v>
       </c>
     </row>
-    <row r="484" spans="2:7">
+    <row r="484" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B484">
         <v>5011200275000</v>
       </c>
@@ -12089,7 +12138,7 @@
         <v>108.55</v>
       </c>
     </row>
-    <row r="485" spans="2:7">
+    <row r="485" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B485">
         <v>5011200263572</v>
       </c>
@@ -12109,7 +12158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="2:7">
+    <row r="486" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B486">
         <v>5011200299766</v>
       </c>
@@ -12129,7 +12178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="2:7">
+    <row r="487" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B487">
         <v>5011200273210</v>
       </c>
@@ -12149,7 +12198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="2:7">
+    <row r="488" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B488">
         <v>5011200275010</v>
       </c>
@@ -12169,7 +12218,7 @@
         <v>104.3</v>
       </c>
     </row>
-    <row r="489" spans="2:7">
+    <row r="489" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B489">
         <v>5011200208465</v>
       </c>
@@ -12189,7 +12238,7 @@
         <v>104.3</v>
       </c>
     </row>
-    <row r="490" spans="2:7">
+    <row r="490" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B490">
         <v>5011200208375</v>
       </c>
@@ -12209,7 +12258,7 @@
         <v>38773</v>
       </c>
     </row>
-    <row r="491" spans="2:7">
+    <row r="491" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B491">
         <v>5011200208467</v>
       </c>
@@ -12229,7 +12278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="2:7">
+    <row r="492" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B492">
         <v>5011200274331</v>
       </c>
@@ -12249,7 +12298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="2:7">
+    <row r="493" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B493">
         <v>5011200263109</v>
       </c>
@@ -12269,7 +12318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="2:7">
+    <row r="494" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B494">
         <v>5011200263110</v>
       </c>
@@ -12289,7 +12338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="2:7">
+    <row r="495" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B495">
         <v>5011200273755</v>
       </c>
@@ -12309,7 +12358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="2:7">
+    <row r="496" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B496">
         <v>5011200275002</v>
       </c>
@@ -12329,7 +12378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="2:7">
+    <row r="497" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B497">
         <v>5011200275004</v>
       </c>
@@ -12349,7 +12398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="2:7">
+    <row r="498" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B498">
         <v>5011200275003</v>
       </c>
@@ -12369,7 +12418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="2:7">
+    <row r="499" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B499">
         <v>5011200291343</v>
       </c>
@@ -12389,7 +12438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="2:7">
+    <row r="500" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B500">
         <v>5011200282194</v>
       </c>
@@ -12409,7 +12458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="2:7">
+    <row r="501" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B501">
         <v>1002</v>
       </c>
@@ -12429,7 +12478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="2:7">
+    <row r="502" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B502">
         <v>5011200262508</v>
       </c>
@@ -12449,7 +12498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="2:7">
+    <row r="503" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B503">
         <v>5011200262507</v>
       </c>
@@ -12469,7 +12518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="2:7">
+    <row r="504" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B504">
         <v>5011200262506</v>
       </c>
@@ -12489,7 +12538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="2:7">
+    <row r="505" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B505">
         <v>5011200262628</v>
       </c>
@@ -12509,7 +12558,7 @@
         <v>4309.2</v>
       </c>
     </row>
-    <row r="506" spans="2:7">
+    <row r="506" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B506">
         <v>5011200262627</v>
       </c>
@@ -12529,7 +12578,7 @@
         <v>4789.3999999999996</v>
       </c>
     </row>
-    <row r="507" spans="2:7">
+    <row r="507" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B507">
         <v>5011200262585</v>
       </c>
@@ -12549,7 +12598,7 @@
         <v>1020.6</v>
       </c>
     </row>
-    <row r="508" spans="2:7">
+    <row r="508" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B508">
         <v>5011200262594</v>
       </c>
@@ -12569,7 +12618,7 @@
         <v>6748.7</v>
       </c>
     </row>
-    <row r="509" spans="2:7">
+    <row r="509" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B509">
         <v>5011200277145</v>
       </c>
@@ -12589,7 +12638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="2:7">
+    <row r="510" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B510">
         <v>5011200221205</v>
       </c>
@@ -12609,7 +12658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="2:7">
+    <row r="511" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B511">
         <v>5011200205995</v>
       </c>
@@ -12629,7 +12678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="2:7">
+    <row r="512" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B512">
         <v>5011200245560</v>
       </c>
@@ -12649,7 +12698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="2:7">
+    <row r="513" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B513">
         <v>5011200275881</v>
       </c>
@@ -12669,7 +12718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="2:7">
+    <row r="514" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B514">
         <v>5011200277891</v>
       </c>
@@ -12689,7 +12738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="2:7">
+    <row r="515" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B515">
         <v>5011200277425</v>
       </c>
@@ -12709,7 +12758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="2:7">
+    <row r="516" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B516">
         <v>5011200277421</v>
       </c>
@@ -12729,7 +12778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="2:7">
+    <row r="517" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B517">
         <v>5011200208451</v>
       </c>
@@ -12749,7 +12798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="2:7">
+    <row r="518" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B518">
         <v>5011200208450</v>
       </c>
@@ -12769,7 +12818,7 @@
         <v>44334</v>
       </c>
     </row>
-    <row r="519" spans="2:7">
+    <row r="519" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B519">
         <v>5011200208420</v>
       </c>
@@ -12789,7 +12838,7 @@
         <v>6422.75</v>
       </c>
     </row>
-    <row r="520" spans="2:7">
+    <row r="520" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B520">
         <v>5011200208425</v>
       </c>
@@ -12809,7 +12858,7 @@
         <v>15911</v>
       </c>
     </row>
-    <row r="521" spans="2:7">
+    <row r="521" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B521">
         <v>5011200291458</v>
       </c>
@@ -12829,7 +12878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="2:7">
+    <row r="522" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B522">
         <v>5011200230001</v>
       </c>
@@ -12849,7 +12898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="2:7">
+    <row r="523" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B523">
         <v>5011200230115</v>
       </c>
@@ -12869,7 +12918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="2:7">
+    <row r="524" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B524">
         <v>5011200291461</v>
       </c>
@@ -12889,7 +12938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="2:7">
+    <row r="525" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B525">
         <v>5011200276057</v>
       </c>
@@ -12909,7 +12958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="2:7">
+    <row r="526" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B526">
         <v>5011200293719</v>
       </c>
@@ -12929,7 +12978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="2:7">
+    <row r="527" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B527">
         <v>5011200230015</v>
       </c>
@@ -12949,7 +12998,7 @@
         <v>6443.45</v>
       </c>
     </row>
-    <row r="528" spans="2:7">
+    <row r="528" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B528">
         <v>5011200230020</v>
       </c>
@@ -12969,7 +13018,7 @@
         <v>13426.25</v>
       </c>
     </row>
-    <row r="529" spans="2:7">
+    <row r="529" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B529">
         <v>5011200230010</v>
       </c>
@@ -12989,7 +13038,7 @@
         <v>48603.199999999997</v>
       </c>
     </row>
-    <row r="530" spans="2:7">
+    <row r="530" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B530">
         <v>5011200207532</v>
       </c>
@@ -13009,7 +13058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="2:7">
+    <row r="531" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B531">
         <v>5011200279121</v>
       </c>
@@ -13029,7 +13078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="2:7">
+    <row r="532" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B532">
         <v>5011200230072</v>
       </c>
@@ -13049,7 +13098,7 @@
         <v>69678.7</v>
       </c>
     </row>
-    <row r="533" spans="2:7">
+    <row r="533" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B533">
         <v>5011200230141</v>
       </c>
@@ -13069,7 +13118,7 @@
         <v>2727.6</v>
       </c>
     </row>
-    <row r="534" spans="2:7">
+    <row r="534" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B534">
         <v>5011200299478</v>
       </c>
@@ -13089,7 +13138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="2:7">
+    <row r="535" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B535">
         <v>5011200230128</v>
       </c>
@@ -13109,7 +13158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="2:7">
+    <row r="536" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B536">
         <v>1</v>
       </c>
@@ -13129,7 +13178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="2:7">
+    <row r="537" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B537">
         <v>5011200230083</v>
       </c>
@@ -13149,7 +13198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="2:7">
+    <row r="538" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B538">
         <v>5011200230111</v>
       </c>
@@ -13169,7 +13218,7 @@
         <v>1926.6</v>
       </c>
     </row>
-    <row r="539" spans="2:7">
+    <row r="539" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B539">
         <v>5011200230324</v>
       </c>
@@ -13189,7 +13238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="2:7">
+    <row r="540" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B540">
         <v>5011200230029</v>
       </c>
@@ -13209,7 +13258,7 @@
         <v>113027.2</v>
       </c>
     </row>
-    <row r="541" spans="2:7">
+    <row r="541" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B541">
         <v>5011200230140</v>
       </c>
@@ -13229,7 +13278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="2:7">
+    <row r="542" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B542">
         <v>5011200230160</v>
       </c>
@@ -13249,7 +13298,7 @@
         <v>18979.55</v>
       </c>
     </row>
-    <row r="543" spans="2:7">
+    <row r="543" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B543">
         <v>5011200279155</v>
       </c>
@@ -13269,7 +13318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="2:7">
+    <row r="544" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B544">
         <v>5011200204387</v>
       </c>
@@ -13289,7 +13338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="2:7">
+    <row r="545" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B545">
         <v>5011200204388</v>
       </c>
@@ -13309,7 +13358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="2:7">
+    <row r="546" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B546">
         <v>5011200230215</v>
       </c>
@@ -13329,7 +13378,7 @@
         <v>10200</v>
       </c>
     </row>
-    <row r="547" spans="2:7">
+    <row r="547" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B547">
         <v>5011200286216</v>
       </c>
@@ -13349,7 +13398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="2:7">
+    <row r="548" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B548">
         <v>5011200230234</v>
       </c>
@@ -13369,7 +13418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="2:7">
+    <row r="549" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B549">
         <v>5011200230202</v>
       </c>
@@ -13389,7 +13438,7 @@
         <v>456.9</v>
       </c>
     </row>
-    <row r="550" spans="2:7">
+    <row r="550" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B550">
         <v>5011200287532</v>
       </c>
@@ -13409,7 +13458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="2:7">
+    <row r="551" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B551">
         <v>1001</v>
       </c>
@@ -13429,7 +13478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="2:7">
+    <row r="552" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B552">
         <v>5011200230204</v>
       </c>
@@ -13449,7 +13498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="2:7">
+    <row r="553" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B553">
         <v>5011200230206</v>
       </c>
@@ -13469,7 +13518,7 @@
         <v>18051.7</v>
       </c>
     </row>
-    <row r="554" spans="2:7">
+    <row r="554" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B554">
         <v>5011200273740</v>
       </c>
@@ -13489,17 +13538,17 @@
         <v>483</v>
       </c>
     </row>
-    <row r="555" spans="2:7">
+    <row r="555" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B555" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="556" spans="2:7">
+    <row r="556" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B556" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="557" spans="2:7">
+    <row r="557" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B557">
         <v>4806513741777</v>
       </c>
@@ -13519,7 +13568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="2:7">
+    <row r="558" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B558">
         <v>5020170893887</v>
       </c>
@@ -13539,7 +13588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="2:7">
+    <row r="559" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B559">
         <v>5020170898774</v>
       </c>
@@ -13559,7 +13608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="2:7">
+    <row r="560" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B560">
         <v>5020170871198</v>
       </c>
@@ -13579,7 +13628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="2:7">
+    <row r="561" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B561">
         <v>4806513741753</v>
       </c>
@@ -13599,7 +13648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="2:7">
+    <row r="562" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B562">
         <v>5020170872427</v>
       </c>
@@ -13619,7 +13668,7 @@
         <v>13091.4</v>
       </c>
     </row>
-    <row r="563" spans="2:7">
+    <row r="563" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B563">
         <v>5020170876993</v>
       </c>
@@ -13639,7 +13688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="2:7">
+    <row r="564" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B564">
         <v>5020140873412</v>
       </c>
@@ -13659,7 +13708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="2:7">
+    <row r="565" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B565">
         <v>5020170872338</v>
       </c>
@@ -13679,7 +13728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="2:7">
+    <row r="566" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B566">
         <v>502017973991</v>
       </c>
@@ -13699,7 +13748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="2:7">
+    <row r="567" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B567">
         <v>5020170973990</v>
       </c>
@@ -13719,7 +13768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="2:7">
+    <row r="568" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B568">
         <v>5020170893837</v>
       </c>
@@ -13739,7 +13788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="2:7">
+    <row r="569" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B569">
         <v>5020170873745</v>
       </c>
@@ -13759,7 +13808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="2:7">
+    <row r="570" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B570">
         <v>5020170872133</v>
       </c>
@@ -13779,7 +13828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="2:7">
+    <row r="571" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B571">
         <v>5020170872362</v>
       </c>
@@ -13799,7 +13848,7 @@
         <v>21582</v>
       </c>
     </row>
-    <row r="572" spans="2:7">
+    <row r="572" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B572">
         <v>5020170872184</v>
       </c>
@@ -13819,7 +13868,7 @@
         <v>15529.16</v>
       </c>
     </row>
-    <row r="573" spans="2:7">
+    <row r="573" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B573">
         <v>5020170872372</v>
       </c>
@@ -13839,7 +13888,7 @@
         <v>18612</v>
       </c>
     </row>
-    <row r="574" spans="2:7">
+    <row r="574" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B574">
         <v>5020170872233</v>
       </c>
@@ -13859,7 +13908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="2:7">
+    <row r="575" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B575">
         <v>5020170872382</v>
       </c>
@@ -13879,7 +13928,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="576" spans="2:7">
+    <row r="576" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B576">
         <v>5020170872311</v>
       </c>
@@ -13899,7 +13948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="2:7">
+    <row r="577" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B577">
         <v>5020170892346</v>
       </c>
@@ -13919,7 +13968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="2:7">
+    <row r="578" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B578">
         <v>5020170889744</v>
       </c>
@@ -13939,7 +13988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="2:7">
+    <row r="579" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B579">
         <v>5020170911570</v>
       </c>
@@ -13959,7 +14008,7 @@
         <v>1825.12</v>
       </c>
     </row>
-    <row r="580" spans="2:7">
+    <row r="580" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B580">
         <v>5020170889746</v>
       </c>
@@ -13979,7 +14028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="2:7">
+    <row r="581" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B581">
         <v>5020170872331</v>
       </c>
@@ -13999,7 +14048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="2:7">
+    <row r="582" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B582">
         <v>5020170872333</v>
       </c>
@@ -14019,7 +14068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="2:7">
+    <row r="583" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B583">
         <v>5020170872329</v>
       </c>
@@ -14039,7 +14088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="2:7">
+    <row r="584" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B584">
         <v>5020170872337</v>
       </c>
@@ -14059,7 +14108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="2:7">
+    <row r="585" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B585">
         <v>5020170872339</v>
       </c>
@@ -14079,7 +14128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="2:7">
+    <row r="586" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B586">
         <v>5020170876814</v>
       </c>
@@ -14099,7 +14148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="2:7">
+    <row r="587" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B587">
         <v>5020170876816</v>
       </c>
@@ -14119,7 +14168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="2:7">
+    <row r="588" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B588">
         <v>5020170876903</v>
       </c>
@@ -14139,7 +14188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="2:7">
+    <row r="589" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B589">
         <v>502017084890</v>
       </c>
@@ -14159,7 +14208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="2:7">
+    <row r="590" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B590">
         <v>5020170874894</v>
       </c>
@@ -14179,7 +14228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="2:7">
+    <row r="591" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B591">
         <v>5020170672289</v>
       </c>
@@ -14199,7 +14248,7 @@
         <v>20213.8</v>
       </c>
     </row>
-    <row r="592" spans="2:7">
+    <row r="592" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B592">
         <v>5020170973993</v>
       </c>
@@ -14219,7 +14268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="2:7">
+    <row r="593" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B593">
         <v>5020170892344</v>
       </c>
@@ -14239,7 +14288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="2:7">
+    <row r="594" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B594">
         <v>5020170893841</v>
       </c>
@@ -14259,7 +14308,7 @@
         <v>18648</v>
       </c>
     </row>
-    <row r="595" spans="2:7">
+    <row r="595" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B595">
         <v>5020170898785</v>
       </c>
@@ -14279,7 +14328,7 @@
         <v>74290</v>
       </c>
     </row>
-    <row r="596" spans="2:7">
+    <row r="596" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B596">
         <v>5030170893831</v>
       </c>
@@ -14299,7 +14348,7 @@
         <v>142376.32000000001</v>
       </c>
     </row>
-    <row r="597" spans="2:7">
+    <row r="597" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B597">
         <v>5020170872425</v>
       </c>
@@ -14319,7 +14368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="2:7">
+    <row r="598" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B598">
         <v>5020170889117</v>
       </c>
@@ -14339,7 +14388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="2:7">
+    <row r="599" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B599">
         <v>5020170873547</v>
       </c>
@@ -14359,7 +14408,7 @@
         <v>3117</v>
       </c>
     </row>
-    <row r="600" spans="2:7">
+    <row r="600" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B600">
         <v>5020170973451</v>
       </c>
@@ -14379,7 +14428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="2:7">
+    <row r="601" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B601">
         <v>5020170974212</v>
       </c>
@@ -14399,7 +14448,7 @@
         <v>10434</v>
       </c>
     </row>
-    <row r="602" spans="2:7">
+    <row r="602" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E602" t="s">
         <v>772</v>
       </c>
@@ -14416,24 +14465,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
